--- a/data_excel/578.xlsx
+++ b/data_excel/578.xlsx
@@ -1,46 +1,156 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="390" yWindow="390" windowWidth="10500" windowHeight="8565" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="10500" windowHeight="8565"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>剩下</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>數量</t>
+  </si>
+  <si>
+    <t>幾</t>
+  </si>
+  <si>
+    <t>adv</t>
+  </si>
+  <si>
+    <t>虛詞</t>
+  </si>
+  <si>
+    <t>顆</t>
+  </si>
+  <si>
+    <t>bunit</t>
+  </si>
+  <si>
+    <t>單位</t>
+  </si>
+  <si>
+    <t>蘋果</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>物品</t>
+  </si>
+  <si>
+    <t>，</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>吃</t>
+  </si>
+  <si>
+    <t>了</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被</t>
+  </si>
+  <si>
+    <t>passive</t>
+  </si>
+  <si>
+    <t>虛詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="新細明體"/>
+      <family val="3"/>
       <charset val="136"/>
-      <family val="3"/>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -48,85 +158,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -414,229 +506,160 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:B12"/>
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>有</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>剩下</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>數量</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>幾</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>adv</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>虛詞</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>顆</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>bunit</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>單位</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>顆</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>bunit</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>單位</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>蘋果</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>物品</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>蘋果</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>物品</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>，</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>吃</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>v</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>了</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>u</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>虛詞</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>數量</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>顆</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>bunit</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>單位</t>
-        </is>
-      </c>
-    </row>
-    <row r="10"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data_excel/578.xlsx
+++ b/data_excel/578.xlsx
@@ -33,9 +33,6 @@
     <t>剩下</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -98,6 +95,10 @@
   </si>
   <si>
     <t>虛詞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,7 +151,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -195,16 +196,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -510,12 +527,12 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -528,8 +545,8 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
+      <c r="F1" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -537,125 +554,125 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data_excel/578.xlsx
+++ b/data_excel/578.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>有</t>
   </si>
@@ -99,6 +99,10 @@
   </si>
   <si>
     <t>left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +531,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -631,12 +635,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
-        <v>1</v>
+      <c r="B7" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
